--- a/Shading Nets/my_graphs/Production Change.xlsx
+++ b/Shading Nets/my_graphs/Production Change.xlsx
@@ -462,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-43.43946489831433</v>
+        <v>-0.08084227051585913</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>-0.0769393439986743</v>
+        <v>-0.0001431866548955441</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -484,7 +484,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>-13.02064582204912</v>
+        <v>-0.02423184958752245</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>-7.496323694183957</v>
+        <v>-0.01395090460209758</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>-0.00990813723183237</v>
+        <v>-1.843937207013369E-05</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -517,7 +517,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>-2.095332674914971</v>
+        <v>-0.003899483010172844</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -528,7 +528,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>-10.82043065805919</v>
+        <v>-0.02013717690715566</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>-7.684507406287594</v>
+        <v>-0.01430112067100708</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>-5.931304385419935</v>
+        <v>-0.01103835203684866</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>-0.2392029770999216</v>
+        <v>-0.0004451645800145343</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -572,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>-25.4808195726946</v>
+        <v>-0.04742064233869314</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -580,7 +580,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>-3.818779196823016</v>
+        <v>-0.007106873206794262</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>-347.6349736280099</v>
+        <v>-0.6469601033313666</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -602,7 +602,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>-11.24906584469136</v>
+        <v>-0.02093488094396889</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -613,7 +613,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>-2.229634858220379</v>
+        <v>-0.004149423699345789</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -624,7 +624,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>-2.854304759879597</v>
+        <v>-0.005311954766511917</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -635,7 +635,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>-0.4179489365487825</v>
+        <v>-0.0007778166909702122</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -646,7 +646,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>-2.075950246478897</v>
+        <v>-0.003863411577185616</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -657,7 +657,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>-2.175025359720166</v>
+        <v>-0.004047793630888918</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>-0.2392029770853696</v>
+        <v>-0.0004451645654626191</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>-29.27630257885903</v>
+        <v>-0.0544841606169939</v>
       </c>
       <c r="C22">
         <v>0</v>
